--- a/result.xlsx
+++ b/result.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -26,7 +27,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +52,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +77,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -425,82 +440,195 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Список файлов</t>
+          <t>Имя файла</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Директория</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Дата создания файла</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Дата изменения файла</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Текстовый документ.txt</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>h:/la2/Новая папка</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Точечный рисунок.bmp</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>h:/la2/Новая папка</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Текстовый документ.txt</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>h:/la2/Новая папка (3)/Новая папка</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Точечный рисунок.bmp</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>h:/la2/Новая папка (3)/Новая папка</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Точечный рисунок.bmp</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>h:/la2/Новая папка (3)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Текстовый документ.txt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>h:/la2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-10-02</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <autoFilter ref="A1:E1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>